--- a/biology/Médecine/Léo_Ambard/Léo_Ambard.xlsx
+++ b/biology/Médecine/Léo_Ambard/Léo_Ambard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Ambard</t>
+          <t>Léo_Ambard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léon Joseph Ambard, dit Léo Ambard, né le 16 février 1876 à Marseille et mort à Paris 6e le 19 mai 1962[1], est un médecin français, professeur à la faculté de médecine de Strasbourg, spécialiste de néphrologie. Il est l'inventeur de la constante d'Ambard, longtemps utilisée en clinique pour estimer la fonction rénale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léon Joseph Ambard, dit Léo Ambard, né le 16 février 1876 à Marseille et mort à Paris 6e le 19 mai 1962, est un médecin français, professeur à la faculté de médecine de Strasbourg, spécialiste de néphrologie. Il est l'inventeur de la constante d'Ambard, longtemps utilisée en clinique pour estimer la fonction rénale.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Ambard</t>
+          <t>Léo_Ambard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est interne des Hôpitaux de Paris, médecin en 1905, puis chef de laboratoire à la faculté de médecine de Paris. 
 Lors de la Grande guerre, il est médecin major de 2e classe (1916), chef de service à l'hôpital mixte de Zuydcoote.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Ambard</t>
+          <t>Léo_Ambard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Travaux scientifiques, [S.l.], [s.n.], Texte intégral.
 Les Rétentions chlorurées dans les néphrites interstitielles, 1905, G. Jacques (Paris), lire en ligne sur Gallica.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Ambard</t>
+          <t>Léo_Ambard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Constante [uréo-sécrétoire] d'Ambard, aprés Constante de Ambard-Moreno avec Óscar Moreno[2],[3]: rapport mathématique liant l'urémie avec le débit de l'urée dans l'urine (1910-1920). Elle est utilisée par les cliniciens pendant des dizaines d'années pour la surveillance de la fonction rénale, remplacée peu à peu par la "clearance de l'urée" (Van Slyke, 1920), puis de la "clearance de la créatinine".</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Constante [uréo-sécrétoire] d'Ambard, aprés Constante de Ambard-Moreno avec Óscar Moreno,: rapport mathématique liant l'urémie avec le débit de l'urée dans l'urine (1910-1920). Elle est utilisée par les cliniciens pendant des dizaines d'années pour la surveillance de la fonction rénale, remplacée peu à peu par la "clearance de l'urée" (Van Slyke, 1920), puis de la "clearance de la créatinine".</t>
         </is>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Ambard</t>
+          <t>Léo_Ambard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur en 1929</t>
         </is>
